--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ODDHIVE/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ODDHIVE/2015136111/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>번호</t>
   </si>
@@ -122,10 +122,25 @@
     <t>합계</t>
   </si>
   <si>
-    <t>155687원</t>
-  </si>
-  <si>
     <t>enclosure,페이더 노브 1개 제외</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이더넷 쉴드 </t>
+  </si>
+  <si>
+    <t>164487원</t>
+  </si>
+  <si>
+    <t>개인 구매</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>개인 구매 제외 시</t>
+  </si>
+  <si>
+    <t>106627원</t>
   </si>
 </sst>
 </file>
@@ -236,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -262,6 +277,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +570,7 @@
     <col min="8" max="8" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +595,11 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -606,7 +625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -626,7 +645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -646,7 +665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -665,8 +684,11 @@
       <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -685,8 +707,11 @@
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -705,8 +730,11 @@
       <c r="G7" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -725,19 +753,46 @@
       <c r="G8" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F9" s="4"/>
-      <c r="H9" t="s">
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8800</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
